--- a/moyusi/Keywords/Web/优惠券-已结束及全部检查.xlsx
+++ b/moyusi/Keywords/Web/优惠券-已结束及全部检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,10 +166,6 @@
   </si>
   <si>
     <t>http://101.132.157.87:8080/#/marketing/storeMarket/activityCoupon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,6 +437,14 @@
   </si>
   <si>
     <t>检查点-秒杀</t>
+  </si>
+  <si>
+    <t>//*[text()="编辑"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动已经结束,无法编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -843,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -955,13 +959,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="F7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1010,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>26</v>
@@ -1052,10 +1056,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1073,14 +1077,14 @@
     </row>
     <row r="16" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12"/>
       <c r="D16" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="14"/>
     </row>
@@ -1089,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="16">
         <v>0</v>
@@ -1099,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1107,13 +1111,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1121,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1135,13 +1139,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1149,13 +1153,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1173,31 +1177,28 @@
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>89</v>
+      <c r="D24" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1218,13 +1219,10 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1245,13 +1243,10 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1259,24 +1254,24 @@
         <v>9</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,36 +1279,36 @@
         <v>9</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="9"/>
     </row>
@@ -1322,22 +1317,22 @@
         <v>9</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="15"/>
     </row>
@@ -1359,13 +1354,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,24 +1365,24 @@
         <v>9</v>
       </c>
       <c r="D38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="F39" s="9"/>
     </row>
@@ -1405,15 +1397,15 @@
         <v>34</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F41" s="21"/>
     </row>
@@ -1435,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1518,10 +1510,10 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1539,14 +1531,14 @@
     </row>
     <row r="51" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="12"/>
       <c r="D51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F51" s="14"/>
     </row>
@@ -1555,10 +1547,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="9" t="s">
@@ -1573,13 +1562,13 @@
         <v>9</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1587,13 +1576,13 @@
         <v>9</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1601,13 +1590,13 @@
         <v>9</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1615,13 +1604,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1639,16 +1628,13 @@
     </row>
     <row r="58" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F58" s="10"/>
     </row>
@@ -1657,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1684,10 +1670,10 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1708,10 +1694,10 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1719,24 +1705,24 @@
         <v>9</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="F64" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -1744,36 +1730,36 @@
         <v>9</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" s="9"/>
     </row>
@@ -1782,22 +1768,22 @@
         <v>9</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" s="15"/>
     </row>
@@ -1819,10 +1805,10 @@
         <v>35</v>
       </c>
       <c r="B72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -1830,24 +1816,24 @@
         <v>9</v>
       </c>
       <c r="D73" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A74" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="F74" s="9"/>
     </row>
@@ -1862,15 +1848,15 @@
         <v>34</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="20" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F76" s="21"/>
     </row>
